--- a/results/I3_N5_M2_T45_C150_DepLowerLeft_s3_P6_res.xlsx
+++ b/results/I3_N5_M2_T45_C150_DepLowerLeft_s3_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>565.5056112981092</v>
+        <v>256.7416712139283</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0130000114440918</v>
+        <v>0.005000114440917969</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.64561469586043</v>
+        <v>9.151333236201161</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.119554780042446</v>
+        <v>9.151333236201161</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>312.4099999999988</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>219.88</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -598,7 +598,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -609,7 +609,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -628,10 +628,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -969,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1066,34 +1066,6 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1196,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>65.71999999999964</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8">
@@ -1207,7 +1179,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>59.43999999999964</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
@@ -1218,7 +1190,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>69.37499999999963</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
@@ -1229,7 +1201,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>64.17999999999964</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -1240,7 +1212,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>63.18499999999963</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
@@ -1251,7 +1223,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>78.50999999999972</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13">
@@ -1262,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>89.9649999999997</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14">
@@ -1273,7 +1245,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>78.14499999999974</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15">
@@ -1284,7 +1256,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>86.69499999999971</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16">
@@ -1295,7 +1267,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>82.95499999999973</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17">
@@ -1306,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>179.8899999999998</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18">
@@ -1317,7 +1289,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>184.2099999999999</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19">
@@ -1328,7 +1300,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>180.05</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20">
@@ -1339,7 +1311,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>182.1149999999999</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21">
@@ -1350,7 +1322,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>179.9399999999999</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22">
@@ -1361,7 +1333,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>140.2</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23">
@@ -1372,7 +1344,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>152.63</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24">
@@ -1383,7 +1355,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>144.435</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25">
@@ -1394,7 +1366,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>151.395</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26">
@@ -1405,7 +1377,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>144.53</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27">
@@ -1416,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>111.6950000000004</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28">
@@ -1427,7 +1399,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>104.8850000000004</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29">
@@ -1438,7 +1410,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>111.7350000000004</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30">
@@ -1449,7 +1421,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>119.5</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31">
@@ -1460,7 +1432,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>114.6850000000004</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32">
@@ -1471,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>179.8899999999998</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33">
@@ -1482,7 +1454,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>184.2099999999999</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34">
@@ -1493,7 +1465,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>180.05</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35">
@@ -1504,7 +1476,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>182.1149999999999</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36">
@@ -1515,7 +1487,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>179.9399999999999</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37">
@@ -1526,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>111.6950000000004</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38">
@@ -1537,7 +1509,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>104.8850000000004</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39">
@@ -1548,7 +1520,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>111.7350000000004</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40">
@@ -1559,7 +1531,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>119.5</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41">
@@ -1570,7 +1542,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>114.6850000000004</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1617,7 +1589,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>29.88999999999984</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1628,7 +1600,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>34.20999999999987</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -1639,7 +1611,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>30.05</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1650,7 +1622,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>32.11499999999987</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1661,7 +1633,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>29.93999999999986</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1818,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>7.18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1829,7 +1801,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>6.895</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1840,7 +1812,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>2.985</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1851,7 +1823,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>3.18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1862,7 +1834,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>3.585</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1873,7 +1845,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>5.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1884,7 +1856,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7.145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1895,7 +1867,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1906,7 +1878,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>7.455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1917,7 +1889,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1928,7 +1900,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>5.63</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1939,7 +1911,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>13.54</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1950,7 +1922,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>14.9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1961,7 +1933,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>5.89</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1972,7 +1944,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>13.01</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -2041,7 +2013,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2121,28 +2093,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
